--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_VNPTPhuTho.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_VNPTPhuTho.xlsx
@@ -710,30 +710,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,6 +727,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,39 +1094,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1171,58 +1171,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1247,23 +1247,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1320,7 +1320,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1496,7 +1496,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3299,6 +3299,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3310,13 +3317,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3360,39 +3360,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3437,58 +3437,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3513,23 +3513,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3586,7 +3586,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3762,7 +3762,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5565,13 +5565,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5583,6 +5576,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5626,39 +5626,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5703,58 +5703,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5779,23 +5779,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5821,7 +5821,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5852,7 +5852,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5910,7 +5910,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5968,7 +5968,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5997,7 +5997,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6028,7 +6028,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6057,7 +6057,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6115,7 +6115,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7831,13 +7831,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7849,6 +7842,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7892,39 +7892,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7969,58 +7969,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8045,23 +8045,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8118,7 +8118,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8176,7 +8176,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8234,7 +8234,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8294,7 +8294,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8323,7 +8323,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8352,7 +8352,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10097,13 +10097,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10115,6 +10108,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10158,39 +10158,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10235,58 +10235,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10311,23 +10311,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10353,7 +10353,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10384,7 +10384,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10413,7 +10413,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10442,7 +10442,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10471,7 +10471,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10529,7 +10529,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10560,7 +10560,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10589,7 +10589,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10618,7 +10618,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10647,7 +10647,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12363,13 +12363,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12381,6 +12374,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12391,8 +12391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12424,41 +12424,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12503,58 +12503,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12579,23 +12579,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12605,7 +12605,9 @@
       <c r="B6" s="61">
         <v>44854</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44855</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -12637,7 +12639,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12668,7 +12670,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12697,7 +12699,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12726,7 +12728,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12755,7 +12757,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12784,7 +12786,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12813,7 +12815,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12844,7 +12846,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12873,7 +12875,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12902,7 +12904,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12931,7 +12933,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14647,13 +14649,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14665,6 +14660,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14708,39 +14710,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14785,58 +14787,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14861,23 +14863,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14903,7 +14905,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14934,7 +14936,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14963,7 +14965,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14992,7 +14994,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15021,7 +15023,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15050,7 +15052,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15079,7 +15081,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15110,7 +15112,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15139,7 +15141,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15168,7 +15170,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15197,7 +15199,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16913,13 +16915,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16931,6 +16926,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16974,39 +16976,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17051,58 +17053,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17127,23 +17129,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17169,7 +17171,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17200,7 +17202,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17229,7 +17231,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17258,7 +17260,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17287,7 +17289,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17316,7 +17318,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17345,7 +17347,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17376,7 +17378,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17405,7 +17407,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17434,7 +17436,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17463,7 +17465,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19179,13 +19181,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19197,6 +19192,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19240,39 +19242,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19317,58 +19319,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19393,23 +19395,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19435,7 +19437,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19466,7 +19468,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19495,7 +19497,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19524,7 +19526,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19553,7 +19555,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19582,7 +19584,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19611,7 +19613,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19642,7 +19644,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19671,7 +19673,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19700,7 +19702,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19729,7 +19731,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20960,6 +20962,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20971,13 +20980,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_VNPTPhuTho.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_VNPTPhuTho.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>20220924300135.</t>
+  </si>
+  <si>
+    <t>Thay connector</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -710,6 +719,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,30 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,39 +1103,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1171,58 +1180,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1247,23 +1256,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1298,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1320,7 +1329,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1349,7 +1358,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1387,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1407,7 +1416,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1436,7 +1445,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1474,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1496,7 +1505,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1534,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1554,7 +1563,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1583,7 +1592,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3299,13 +3308,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3317,6 +3319,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3360,39 +3369,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3437,58 +3446,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3513,23 +3522,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3555,7 +3564,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3586,7 +3595,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3615,7 +3624,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3644,7 +3653,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3673,7 +3682,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3702,7 +3711,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3731,7 +3740,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3762,7 +3771,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3791,7 +3800,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3820,7 +3829,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3849,7 +3858,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5565,6 +5574,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5576,13 +5592,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5626,39 +5635,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5703,58 +5712,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5779,23 +5788,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5821,7 +5830,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5852,7 +5861,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5881,7 +5890,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5910,7 +5919,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5939,7 +5948,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5968,7 +5977,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5997,7 +6006,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6028,7 +6037,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6057,7 +6066,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6086,7 +6095,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6115,7 +6124,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7831,6 +7840,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7842,13 +7858,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7892,39 +7901,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7969,58 +7978,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8045,23 +8054,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8087,7 +8096,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8118,7 +8127,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8147,7 +8156,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8176,7 +8185,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8205,7 +8214,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8234,7 +8243,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8263,7 +8272,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8294,7 +8303,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8323,7 +8332,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8352,7 +8361,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8381,7 +8390,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10097,6 +10106,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10108,13 +10124,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10158,39 +10167,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10235,58 +10244,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10311,23 +10320,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10353,7 +10362,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10384,7 +10393,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10413,7 +10422,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10442,7 +10451,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10471,7 +10480,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10500,7 +10509,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10529,7 +10538,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10560,7 +10569,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10589,7 +10598,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10618,7 +10627,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10647,7 +10656,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12363,6 +12372,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12374,13 +12390,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12391,8 +12400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12424,41 +12433,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12503,58 +12512,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12579,23 +12588,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12631,15 +12640,25 @@
         <v>67</v>
       </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12670,7 +12689,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12699,7 +12718,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12728,7 +12747,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12757,7 +12776,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12786,7 +12805,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12815,7 +12834,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12846,7 +12865,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12875,7 +12894,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12904,7 +12923,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12933,7 +12952,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13083,7 +13102,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13392,7 +13411,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13584,7 +13603,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14649,6 +14668,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14660,13 +14686,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14710,39 +14729,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14787,58 +14806,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14863,23 +14882,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14905,7 +14924,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14936,7 +14955,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14965,7 +14984,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14994,7 +15013,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15023,7 +15042,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15052,7 +15071,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15081,7 +15100,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15112,7 +15131,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15141,7 +15160,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15170,7 +15189,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15199,7 +15218,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16915,6 +16934,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16926,13 +16952,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16976,39 +16995,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17053,58 +17072,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17129,23 +17148,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17171,7 +17190,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17202,7 +17221,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17231,7 +17250,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17260,7 +17279,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17289,7 +17308,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17318,7 +17337,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17347,7 +17366,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17378,7 +17397,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17407,7 +17426,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17436,7 +17455,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17465,7 +17484,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19181,6 +19200,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19192,13 +19218,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19242,39 +19261,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19319,58 +19338,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19395,23 +19414,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19437,7 +19456,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19468,7 +19487,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19497,7 +19516,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19526,7 +19545,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19555,7 +19574,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19584,7 +19603,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19613,7 +19632,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19644,7 +19663,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19673,7 +19692,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19702,7 +19721,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19731,7 +19750,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20962,13 +20981,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20980,6 +20992,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
